--- a/elective_datasheet.xlsx
+++ b/elective_datasheet.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="510" yWindow="570" windowWidth="14055" windowHeight="4050"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="128">
   <si>
     <t>Elective_no</t>
   </si>
@@ -398,21 +401,26 @@
   <si>
     <t xml:space="preserve">Introduce fundamental concepts of technical documents. Teach about different types of documentation required – Technical Manuals. User Manuals and Support/ Maintenance Manuals. Introduce technologies related to editing – Online Help. In-app help. etc. Introduce the art of making effective presentations. </t>
   </si>
+  <si>
+    <t>Interests</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -422,7 +430,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -444,68 +452,349 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="23.57"/>
-    <col customWidth="1" min="3" max="3" width="48.71"/>
-    <col customWidth="1" min="4" max="4" width="20.86"/>
-    <col customWidth="1" min="5" max="6" width="31.0"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,12 +813,14 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -546,12 +837,14 @@
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -568,12 +861,14 @@
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -590,12 +885,14 @@
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>19</v>
@@ -612,12 +909,14 @@
       <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>24</v>
@@ -634,12 +933,14 @@
       <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>27</v>
@@ -656,12 +957,14 @@
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
@@ -678,12 +981,14 @@
       <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>36</v>
@@ -700,12 +1005,14 @@
       <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>40</v>
@@ -722,12 +1029,14 @@
       <c r="F10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>42</v>
@@ -744,12 +1053,14 @@
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>45</v>
@@ -766,12 +1077,14 @@
       <c r="F12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>50</v>
@@ -788,12 +1101,14 @@
       <c r="F13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>54</v>
@@ -810,12 +1125,14 @@
       <c r="F14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>58</v>
@@ -832,12 +1149,14 @@
       <c r="F15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>6</v>
+      </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>62</v>
@@ -854,12 +1173,14 @@
       <c r="F16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>65</v>
@@ -876,12 +1197,14 @@
       <c r="F17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>68</v>
@@ -898,12 +1221,14 @@
       <c r="F18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>71</v>
@@ -920,12 +1245,14 @@
       <c r="F19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>74</v>
@@ -942,12 +1269,14 @@
       <c r="F20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <v>3</v>
+      </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>76</v>
@@ -964,12 +1293,14 @@
       <c r="F21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>78</v>
@@ -986,12 +1317,14 @@
       <c r="F22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>80</v>
@@ -1008,12 +1341,14 @@
       <c r="F23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>82</v>
@@ -1030,12 +1365,14 @@
       <c r="F24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>85</v>
@@ -1052,12 +1389,14 @@
       <c r="F25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>88</v>
@@ -1074,12 +1413,14 @@
       <c r="F26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>91</v>
@@ -1096,12 +1437,14 @@
       <c r="F27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>94</v>
@@ -1118,12 +1461,14 @@
       <c r="F28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2">
+        <v>7</v>
+      </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>98</v>
@@ -1140,12 +1485,14 @@
       <c r="F29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>101</v>
@@ -1162,12 +1509,14 @@
       <c r="F30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>104</v>
@@ -1184,12 +1533,14 @@
       <c r="F31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2">
+        <v>8</v>
+      </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>107</v>
@@ -1206,12 +1557,14 @@
       <c r="F32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>109</v>
@@ -1228,12 +1581,14 @@
       <c r="F33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2">
+        <v>7</v>
+      </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>112</v>
@@ -1250,12 +1605,14 @@
       <c r="F34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2">
+        <v>6</v>
+      </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>114</v>
@@ -1272,12 +1629,14 @@
       <c r="F35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="7">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>117</v>
@@ -1294,12 +1653,14 @@
       <c r="F36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
       <c r="H36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>119</v>
@@ -1316,12 +1677,14 @@
       <c r="F37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
       <c r="H37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>121</v>
@@ -1338,12 +1701,14 @@
       <c r="F38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>123</v>
@@ -1360,12 +1725,14 @@
       <c r="F39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="7">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>125</v>
@@ -1382,10 +1749,12 @@
       <c r="F40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
       <c r="H40" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/elective_datasheet.xlsx
+++ b/elective_datasheet.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANISH\Documents\project_stuff\wt2_project\WT2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="14055" windowHeight="4050"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="129">
   <si>
     <t>Elective_no</t>
   </si>
@@ -404,12 +409,15 @@
   <si>
     <t>Interests</t>
   </si>
+  <si>
+    <t>Dr. Antony Priyakumar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -489,6 +497,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -535,7 +551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,9 +583,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,6 +618,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -776,17 +794,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="48.7109375" customWidth="1"/>
@@ -794,7 +812,7 @@
     <col min="5" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +836,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -842,7 +860,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -866,7 +884,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -890,7 +908,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -914,7 +932,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -938,7 +956,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -962,7 +980,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -986,7 +1004,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1010,7 +1028,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1034,7 +1052,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1058,7 +1076,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1082,7 +1100,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1106,7 +1124,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1130,7 +1148,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -1154,7 +1172,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -1178,7 +1196,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1189,7 +1207,7 @@
         <v>66</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>48</v>
@@ -1202,7 +1220,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -1226,7 +1244,7 @@
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -1250,7 +1268,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -1274,7 +1292,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -1298,7 +1316,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -1322,7 +1340,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -1346,7 +1364,7 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -1370,7 +1388,7 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>5</v>
       </c>
@@ -1394,7 +1412,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>5</v>
       </c>
@@ -1418,7 +1436,7 @@
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>5</v>
       </c>
@@ -1442,7 +1460,7 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>5</v>
       </c>
@@ -1466,7 +1484,7 @@
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>5</v>
       </c>
@@ -1490,7 +1508,7 @@
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>6</v>
       </c>
@@ -1514,7 +1532,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>6</v>
       </c>
@@ -1538,7 +1556,7 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>6</v>
       </c>
@@ -1562,7 +1580,7 @@
       </c>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>6</v>
       </c>
@@ -1586,7 +1604,7 @@
       </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>6</v>
       </c>
@@ -1610,7 +1628,7 @@
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>6</v>
       </c>
@@ -1634,7 +1652,7 @@
       </c>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>6</v>
       </c>
@@ -1658,7 +1676,7 @@
       </c>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>7</v>
       </c>
@@ -1682,7 +1700,7 @@
       </c>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>7</v>
       </c>
@@ -1706,7 +1724,7 @@
       </c>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>7</v>
       </c>
@@ -1730,7 +1748,7 @@
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>7</v>
       </c>
